--- a/medicine/Enfance/La_Route_de_l'or/La_Route_de_l'or.xlsx
+++ b/medicine/Enfance/La_Route_de_l'or/La_Route_de_l'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Route_de_l%27or</t>
+          <t>La_Route_de_l'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Route de l'or (titre original : The King's Fifth) est un roman pour la jeunesse de Scott O'Dell paru en 1966. Il adopte le point de vue d'un adolescent espagnol qui observe, en participant à la colonisation espagnole de l'Amérique, l'impact des Européens à la recherche de l'or sur la vie des populations du Nouveau-Continent.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Route_de_l%27or</t>
+          <t>La_Route_de_l'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Estéban de Sandoval : un adolescent cartographe. Innocent et désireux de cartographier des lieux que personne n'a vu avant lui, il se laisse finalement corrompre par la soif de l'or. Il a de l'amitié pour Zia mais ne semble pas s'apercevoir de l'amour qu'éprouve probablement l'adolescente pour lui.
 Zia Troyano : une adolescente, guide local. Curieuse de tout et notamment des cartes d'Esteban, bavarde, têtue, un garçon manqué aux longs membres maigres. Esteban la prend d'abord pour un garçon. Elle garde un petit animal avec elle, un aguatil[Quoi ?]. Les chevaux et les cartes dessinées par Esteban la fascinent. Elle semble amoureuse de l'adolescent, mais se détourne de lui quand celui-ci est pris par la soif de l'or.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Route_de_l%27or</t>
+          <t>La_Route_de_l'or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intrigue est double. On suit d'une part le procès du jeune cartographe Esteban de Sandoval, accusé du meurtre du Capitaine Mendoza et d'avoir volé le cinquième du trésor dû au roi, et d'autre part les événements qui ont précédé le procès : le voyage d'Esteban et des conquistadors à la recherche des Sept Cités d'Or de Cibola. Le lecteur est tenu en haleine par l'intrigue policière (Esteban a-t-il tué Mendoza, sera-t-il acquitté ?) et par l'intrigue liée à un trésor en or, dont le jeune homme connaitrait l'emplacement.
 Le roman s'inspire de personnages historiques réels, liés à l'exploration du Nouveau-Mexique et à la recherche en 1539 des hypothétiques Cités d'Or de Cibola : le Vice-roi Antonio de Mendoza et l'esclave nord-africain Esteban de Dorantes. L'histoire proposée est fictive mais située dans un cadre crédible et documenté, sans aucun élément merveilleux ou de science-fiction.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Route_de_l%27or</t>
+          <t>La_Route_de_l'or</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Adaptation télévisuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le livre a inspiré la série animée de 1982 Les Mystérieuses Cités d'or. Si certains personnages conservent leur nom du livre et si leur quête de richesses est maintenue, les similitudes s’arrêtent toutefois là, la série animée évoluant davantage vers le fantastique et la science-fiction. De plus, alors que l'histoire du dessin animé se déroule en Amérique du Sud (sur les territoires de l'empire inca, de l'Amazonie et de la civilisation maya), celle du livre se situe en Californie et au Nouveau-Mexique. La quête du personnage principal s'avère très différente : soif d'aventure (puis de l'or) pour l'Esteban du roman, recherche du père et des origines pour l'Esteban de la série.
 Quelques épisodes se retrouvent néanmoins dans les deux œuvres : l'illusion provoquée par un coucher de soleil qui donne à la pierre des bâtiments l'aspect d'une cité d'or pendant un court instant (épisode 17), le rituel maya consistant à jeter de la poussière d'or au fond d'un lac au cours d'une cérémonie religieuse et la destruction de la retenue d'eau (épisode 25).
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Route_de_l%27or</t>
+          <t>La_Route_de_l'or</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,10 +637,12 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1967 : Médaille Newbery Livre
-1970 : Jugendbuchpreis[1]</t>
+1970 : Jugendbuchpreis</t>
         </is>
       </c>
     </row>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Route_de_l%27or</t>
+          <t>La_Route_de_l'or</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Éditions francophones</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>France
 Scott O'Dell, La Route de l'or, Flammarion, coll. « Castor Poche », 1993, 480 p. (ISBN 9782081622845)
